--- a/tensorflow/lite/kernels/optimized-low-precision/Results/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations/variable-all-sizes/Excels/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations-results.xlsx
+++ b/tensorflow/lite/kernels/optimized-low-precision/Results/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations/variable-all-sizes/Excels/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations-results.xlsx
@@ -749,27 +749,27 @@
         <v>32</v>
       </c>
       <c r="J12" s="2">
-        <f>ROUND(((B3 - B12) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B12,4)</f>
         <v/>
       </c>
       <c r="K12" s="2">
-        <f>ROUND(((C3 - C12) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C12,4)</f>
         <v/>
       </c>
       <c r="L12" s="2">
-        <f>ROUND(((D3 - D12) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D12,4)</f>
         <v/>
       </c>
       <c r="M12" s="2">
-        <f>ROUND(((E3 - E12) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E12,4)</f>
         <v/>
       </c>
       <c r="N12" s="2">
-        <f>ROUND(((F3 - F12) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F12,4)</f>
         <v/>
       </c>
       <c r="O12" s="2">
-        <f>ROUND(((G3 - G12) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G12,4)</f>
         <v/>
       </c>
       <c r="Q12" s="2">
@@ -808,27 +808,27 @@
         <v>128</v>
       </c>
       <c r="J13" s="2">
-        <f>ROUND(((B4 - B13) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B13,4)</f>
         <v/>
       </c>
       <c r="K13" s="2">
-        <f>ROUND(((C4 - C13) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C13,4)</f>
         <v/>
       </c>
       <c r="L13" s="2">
-        <f>ROUND(((D4 - D13) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D13,4)</f>
         <v/>
       </c>
       <c r="M13" s="2">
-        <f>ROUND(((E4 - E13) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E13,4)</f>
         <v/>
       </c>
       <c r="N13" s="2">
-        <f>ROUND(((F4 - F13) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F13,4)</f>
         <v/>
       </c>
       <c r="O13" s="2">
-        <f>ROUND(((G4 - G13) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G13,4)</f>
         <v/>
       </c>
       <c r="Q13" s="2">
@@ -867,27 +867,27 @@
         <v>512</v>
       </c>
       <c r="J14" s="2">
-        <f>ROUND(((B5 - B14) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B14,4)</f>
         <v/>
       </c>
       <c r="K14" s="2">
-        <f>ROUND(((C5 - C14) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C14,4)</f>
         <v/>
       </c>
       <c r="L14" s="2">
-        <f>ROUND(((D5 - D14) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D14,4)</f>
         <v/>
       </c>
       <c r="M14" s="2">
-        <f>ROUND(((E5 - E14) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E14,4)</f>
         <v/>
       </c>
       <c r="N14" s="2">
-        <f>ROUND(((F5 - F14) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F14,4)</f>
         <v/>
       </c>
       <c r="O14" s="2">
-        <f>ROUND(((G5 - G14) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G14,4)</f>
         <v/>
       </c>
       <c r="Q14" s="2">
@@ -926,27 +926,27 @@
         <v>2048</v>
       </c>
       <c r="J15" s="2">
-        <f>ROUND(((B6 - B15) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B15,4)</f>
         <v/>
       </c>
       <c r="K15" s="2">
-        <f>ROUND(((C6 - C15) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C15,4)</f>
         <v/>
       </c>
       <c r="L15" s="2">
-        <f>ROUND(((D6 - D15) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D15,4)</f>
         <v/>
       </c>
       <c r="M15" s="2">
-        <f>ROUND(((E6 - E15) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E15,4)</f>
         <v/>
       </c>
       <c r="N15" s="2">
-        <f>ROUND(((F6 - F15) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F15,4)</f>
         <v/>
       </c>
       <c r="O15" s="2">
-        <f>ROUND(((G6 - G15) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G15,4)</f>
         <v/>
       </c>
       <c r="Q15" s="2">
@@ -985,27 +985,27 @@
         <v>4096</v>
       </c>
       <c r="J16" s="2">
-        <f>ROUND(((B7 - B16) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B16,4)</f>
         <v/>
       </c>
       <c r="K16" s="2">
-        <f>ROUND(((C7 - C16) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C16,4)</f>
         <v/>
       </c>
       <c r="L16" s="2">
-        <f>ROUND(((D7 - D16) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D16,4)</f>
         <v/>
       </c>
       <c r="M16" s="2">
-        <f>ROUND(((E7 - E16) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E16,4)</f>
         <v/>
       </c>
       <c r="N16" s="2">
-        <f>ROUND(((F7 - F16) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F16,4)</f>
         <v/>
       </c>
       <c r="O16" s="2">
-        <f>ROUND(((G7 - G16) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G16,4)</f>
         <v/>
       </c>
       <c r="Q16" s="2">
@@ -1044,27 +1044,27 @@
         <v>8192</v>
       </c>
       <c r="J17" s="2">
-        <f>ROUND(((B8 - B17) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B17,4)</f>
         <v/>
       </c>
       <c r="K17" s="2">
-        <f>ROUND(((C8 - C17) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C17,4)</f>
         <v/>
       </c>
       <c r="L17" s="2">
-        <f>ROUND(((D8 - D17) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D17,4)</f>
         <v/>
       </c>
       <c r="M17" s="2">
-        <f>ROUND(((E8 - E17) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E17,4)</f>
         <v/>
       </c>
       <c r="N17" s="2">
-        <f>ROUND(((F8 - F17) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F17,4)</f>
         <v/>
       </c>
       <c r="O17" s="2">
-        <f>ROUND(((G8 - G17) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G17,4)</f>
         <v/>
       </c>
       <c r="Q17" s="2">
@@ -1172,27 +1172,27 @@
         <v>32</v>
       </c>
       <c r="J21" s="2">
-        <f>ROUND(((B3 - B21) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B21,4)</f>
         <v/>
       </c>
       <c r="K21" s="2">
-        <f>ROUND(((C3 - C21) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C21,4)</f>
         <v/>
       </c>
       <c r="L21" s="2">
-        <f>ROUND(((D3 - D21) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D21,4)</f>
         <v/>
       </c>
       <c r="M21" s="2">
-        <f>ROUND(((E3 - E21) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E21,4)</f>
         <v/>
       </c>
       <c r="N21" s="2">
-        <f>ROUND(((F3 - F21) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F21,4)</f>
         <v/>
       </c>
       <c r="O21" s="2">
-        <f>ROUND(((G3 - G21) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G21,4)</f>
         <v/>
       </c>
       <c r="Q21" s="2">
@@ -1231,27 +1231,27 @@
         <v>128</v>
       </c>
       <c r="J22" s="2">
-        <f>ROUND(((B4 - B22) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B22,4)</f>
         <v/>
       </c>
       <c r="K22" s="2">
-        <f>ROUND(((C4 - C22) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C22,4)</f>
         <v/>
       </c>
       <c r="L22" s="2">
-        <f>ROUND(((D4 - D22) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D22,4)</f>
         <v/>
       </c>
       <c r="M22" s="2">
-        <f>ROUND(((E4 - E22) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E22,4)</f>
         <v/>
       </c>
       <c r="N22" s="2">
-        <f>ROUND(((F4 - F22) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F22,4)</f>
         <v/>
       </c>
       <c r="O22" s="2">
-        <f>ROUND(((G4 - G22) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G22,4)</f>
         <v/>
       </c>
       <c r="Q22" s="2">
@@ -1290,27 +1290,27 @@
         <v>512</v>
       </c>
       <c r="J23" s="2">
-        <f>ROUND(((B5 - B23) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B23,4)</f>
         <v/>
       </c>
       <c r="K23" s="2">
-        <f>ROUND(((C5 - C23) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C23,4)</f>
         <v/>
       </c>
       <c r="L23" s="2">
-        <f>ROUND(((D5 - D23) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D23,4)</f>
         <v/>
       </c>
       <c r="M23" s="2">
-        <f>ROUND(((E5 - E23) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E23,4)</f>
         <v/>
       </c>
       <c r="N23" s="2">
-        <f>ROUND(((F5 - F23) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F23,4)</f>
         <v/>
       </c>
       <c r="O23" s="2">
-        <f>ROUND(((G5 - G23) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G23,4)</f>
         <v/>
       </c>
       <c r="Q23" s="2">
@@ -1349,27 +1349,27 @@
         <v>2048</v>
       </c>
       <c r="J24" s="2">
-        <f>ROUND(((B6 - B24) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B24,4)</f>
         <v/>
       </c>
       <c r="K24" s="2">
-        <f>ROUND(((C6 - C24) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C24,4)</f>
         <v/>
       </c>
       <c r="L24" s="2">
-        <f>ROUND(((D6 - D24) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D24,4)</f>
         <v/>
       </c>
       <c r="M24" s="2">
-        <f>ROUND(((E6 - E24) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E24,4)</f>
         <v/>
       </c>
       <c r="N24" s="2">
-        <f>ROUND(((F6 - F24) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F24,4)</f>
         <v/>
       </c>
       <c r="O24" s="2">
-        <f>ROUND(((G6 - G24) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G24,4)</f>
         <v/>
       </c>
       <c r="Q24" s="2">
@@ -1408,27 +1408,27 @@
         <v>4096</v>
       </c>
       <c r="J25" s="2">
-        <f>ROUND(((B7 - B25) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B25,4)</f>
         <v/>
       </c>
       <c r="K25" s="2">
-        <f>ROUND(((C7 - C25) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C25,4)</f>
         <v/>
       </c>
       <c r="L25" s="2">
-        <f>ROUND(((D7 - D25) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D25,4)</f>
         <v/>
       </c>
       <c r="M25" s="2">
-        <f>ROUND(((E7 - E25) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E25,4)</f>
         <v/>
       </c>
       <c r="N25" s="2">
-        <f>ROUND(((F7 - F25) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F25,4)</f>
         <v/>
       </c>
       <c r="O25" s="2">
-        <f>ROUND(((G7 - G25) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G25,4)</f>
         <v/>
       </c>
       <c r="Q25" s="2">
@@ -1467,27 +1467,27 @@
         <v>8192</v>
       </c>
       <c r="J26" s="2">
-        <f>ROUND(((B8 - B26) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B26,4)</f>
         <v/>
       </c>
       <c r="K26" s="2">
-        <f>ROUND(((C8 - C26) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C26,4)</f>
         <v/>
       </c>
       <c r="L26" s="2">
-        <f>ROUND(((D8 - D26) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D26,4)</f>
         <v/>
       </c>
       <c r="M26" s="2">
-        <f>ROUND(((E8 - E26) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E26,4)</f>
         <v/>
       </c>
       <c r="N26" s="2">
-        <f>ROUND(((F8 - F26) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F26,4)</f>
         <v/>
       </c>
       <c r="O26" s="2">
-        <f>ROUND(((G8 - G26) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G26,4)</f>
         <v/>
       </c>
       <c r="Q26" s="2">
@@ -1595,27 +1595,27 @@
         <v>32</v>
       </c>
       <c r="J30" s="2">
-        <f>ROUND(((B3 - B30) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B30,4)</f>
         <v/>
       </c>
       <c r="K30" s="2">
-        <f>ROUND(((C3 - C30) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C30,4)</f>
         <v/>
       </c>
       <c r="L30" s="2">
-        <f>ROUND(((D3 - D30) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D30,4)</f>
         <v/>
       </c>
       <c r="M30" s="2">
-        <f>ROUND(((E3 - E30) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E30,4)</f>
         <v/>
       </c>
       <c r="N30" s="2">
-        <f>ROUND(((F3 - F30) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F30,4)</f>
         <v/>
       </c>
       <c r="O30" s="2">
-        <f>ROUND(((G3 - G30) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G30,4)</f>
         <v/>
       </c>
       <c r="Q30" s="2">
@@ -1654,27 +1654,27 @@
         <v>128</v>
       </c>
       <c r="J31" s="2">
-        <f>ROUND(((B4 - B31) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B31,4)</f>
         <v/>
       </c>
       <c r="K31" s="2">
-        <f>ROUND(((C4 - C31) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C31,4)</f>
         <v/>
       </c>
       <c r="L31" s="2">
-        <f>ROUND(((D4 - D31) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D31,4)</f>
         <v/>
       </c>
       <c r="M31" s="2">
-        <f>ROUND(((E4 - E31) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E31,4)</f>
         <v/>
       </c>
       <c r="N31" s="2">
-        <f>ROUND(((F4 - F31) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F31,4)</f>
         <v/>
       </c>
       <c r="O31" s="2">
-        <f>ROUND(((G4 - G31) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G31,4)</f>
         <v/>
       </c>
       <c r="Q31" s="2">
@@ -1713,27 +1713,27 @@
         <v>512</v>
       </c>
       <c r="J32" s="2">
-        <f>ROUND(((B5 - B32) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B32,4)</f>
         <v/>
       </c>
       <c r="K32" s="2">
-        <f>ROUND(((C5 - C32) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C32,4)</f>
         <v/>
       </c>
       <c r="L32" s="2">
-        <f>ROUND(((D5 - D32) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D32,4)</f>
         <v/>
       </c>
       <c r="M32" s="2">
-        <f>ROUND(((E5 - E32) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E32,4)</f>
         <v/>
       </c>
       <c r="N32" s="2">
-        <f>ROUND(((F5 - F32) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F32,4)</f>
         <v/>
       </c>
       <c r="O32" s="2">
-        <f>ROUND(((G5 - G32) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G32,4)</f>
         <v/>
       </c>
       <c r="Q32" s="2">
@@ -1772,27 +1772,27 @@
         <v>2048</v>
       </c>
       <c r="J33" s="2">
-        <f>ROUND(((B6 - B33) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B33,4)</f>
         <v/>
       </c>
       <c r="K33" s="2">
-        <f>ROUND(((C6 - C33) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C33,4)</f>
         <v/>
       </c>
       <c r="L33" s="2">
-        <f>ROUND(((D6 - D33) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D33,4)</f>
         <v/>
       </c>
       <c r="M33" s="2">
-        <f>ROUND(((E6 - E33) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E33,4)</f>
         <v/>
       </c>
       <c r="N33" s="2">
-        <f>ROUND(((F6 - F33) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F33,4)</f>
         <v/>
       </c>
       <c r="O33" s="2">
-        <f>ROUND(((G6 - G33) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G33,4)</f>
         <v/>
       </c>
       <c r="Q33" s="2">
@@ -1831,27 +1831,27 @@
         <v>4096</v>
       </c>
       <c r="J34" s="2">
-        <f>ROUND(((B7 - B34) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B34,4)</f>
         <v/>
       </c>
       <c r="K34" s="2">
-        <f>ROUND(((C7 - C34) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C34,4)</f>
         <v/>
       </c>
       <c r="L34" s="2">
-        <f>ROUND(((D7 - D34) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D34,4)</f>
         <v/>
       </c>
       <c r="M34" s="2">
-        <f>ROUND(((E7 - E34) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E34,4)</f>
         <v/>
       </c>
       <c r="N34" s="2">
-        <f>ROUND(((F7 - F34) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F34,4)</f>
         <v/>
       </c>
       <c r="O34" s="2">
-        <f>ROUND(((G7 - G34) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G34,4)</f>
         <v/>
       </c>
       <c r="Q34" s="2">
@@ -1890,27 +1890,27 @@
         <v>8192</v>
       </c>
       <c r="J35" s="2">
-        <f>ROUND(((B8 - B35) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B35,4)</f>
         <v/>
       </c>
       <c r="K35" s="2">
-        <f>ROUND(((C8 - C35) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C35,4)</f>
         <v/>
       </c>
       <c r="L35" s="2">
-        <f>ROUND(((D8 - D35) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D35,4)</f>
         <v/>
       </c>
       <c r="M35" s="2">
-        <f>ROUND(((E8 - E35) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E35,4)</f>
         <v/>
       </c>
       <c r="N35" s="2">
-        <f>ROUND(((F8 - F35) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F35,4)</f>
         <v/>
       </c>
       <c r="O35" s="2">
-        <f>ROUND(((G8 - G35) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G35,4)</f>
         <v/>
       </c>
       <c r="Q35" s="2">
@@ -2018,27 +2018,27 @@
         <v>32</v>
       </c>
       <c r="J39" s="2">
-        <f>ROUND(((B3 - B39) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B39,4)</f>
         <v/>
       </c>
       <c r="K39" s="2">
-        <f>ROUND(((C3 - C39) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C39,4)</f>
         <v/>
       </c>
       <c r="L39" s="2">
-        <f>ROUND(((D3 - D39) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D39,4)</f>
         <v/>
       </c>
       <c r="M39" s="2">
-        <f>ROUND(((E3 - E39) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E39,4)</f>
         <v/>
       </c>
       <c r="N39" s="2">
-        <f>ROUND(((F3 - F39) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F39,4)</f>
         <v/>
       </c>
       <c r="O39" s="2">
-        <f>ROUND(((G3 - G39) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G39,4)</f>
         <v/>
       </c>
       <c r="Q39" s="2">
@@ -2077,27 +2077,27 @@
         <v>128</v>
       </c>
       <c r="J40" s="2">
-        <f>ROUND(((B4 - B40) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B40,4)</f>
         <v/>
       </c>
       <c r="K40" s="2">
-        <f>ROUND(((C4 - C40) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C40,4)</f>
         <v/>
       </c>
       <c r="L40" s="2">
-        <f>ROUND(((D4 - D40) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D40,4)</f>
         <v/>
       </c>
       <c r="M40" s="2">
-        <f>ROUND(((E4 - E40) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E40,4)</f>
         <v/>
       </c>
       <c r="N40" s="2">
-        <f>ROUND(((F4 - F40) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F40,4)</f>
         <v/>
       </c>
       <c r="O40" s="2">
-        <f>ROUND(((G4 - G40) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G40,4)</f>
         <v/>
       </c>
       <c r="Q40" s="2">
@@ -2136,27 +2136,27 @@
         <v>512</v>
       </c>
       <c r="J41" s="2">
-        <f>ROUND(((B5 - B41) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B41,4)</f>
         <v/>
       </c>
       <c r="K41" s="2">
-        <f>ROUND(((C5 - C41) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C41,4)</f>
         <v/>
       </c>
       <c r="L41" s="2">
-        <f>ROUND(((D5 - D41) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D41,4)</f>
         <v/>
       </c>
       <c r="M41" s="2">
-        <f>ROUND(((E5 - E41) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E41,4)</f>
         <v/>
       </c>
       <c r="N41" s="2">
-        <f>ROUND(((F5 - F41) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F41,4)</f>
         <v/>
       </c>
       <c r="O41" s="2">
-        <f>ROUND(((G5 - G41) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G41,4)</f>
         <v/>
       </c>
       <c r="Q41" s="2">
@@ -2195,27 +2195,27 @@
         <v>2048</v>
       </c>
       <c r="J42" s="2">
-        <f>ROUND(((B6 - B42) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B42,4)</f>
         <v/>
       </c>
       <c r="K42" s="2">
-        <f>ROUND(((C6 - C42) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C42,4)</f>
         <v/>
       </c>
       <c r="L42" s="2">
-        <f>ROUND(((D6 - D42) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D42,4)</f>
         <v/>
       </c>
       <c r="M42" s="2">
-        <f>ROUND(((E6 - E42) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E42,4)</f>
         <v/>
       </c>
       <c r="N42" s="2">
-        <f>ROUND(((F6 - F42) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F42,4)</f>
         <v/>
       </c>
       <c r="O42" s="2">
-        <f>ROUND(((G6 - G42) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G42,4)</f>
         <v/>
       </c>
       <c r="Q42" s="2">
@@ -2254,27 +2254,27 @@
         <v>4096</v>
       </c>
       <c r="J43" s="2">
-        <f>ROUND(((B7 - B43) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B43,4)</f>
         <v/>
       </c>
       <c r="K43" s="2">
-        <f>ROUND(((C7 - C43) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C43,4)</f>
         <v/>
       </c>
       <c r="L43" s="2">
-        <f>ROUND(((D7 - D43) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D43,4)</f>
         <v/>
       </c>
       <c r="M43" s="2">
-        <f>ROUND(((E7 - E43) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E43,4)</f>
         <v/>
       </c>
       <c r="N43" s="2">
-        <f>ROUND(((F7 - F43) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F43,4)</f>
         <v/>
       </c>
       <c r="O43" s="2">
-        <f>ROUND(((G7 - G43) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G43,4)</f>
         <v/>
       </c>
       <c r="Q43" s="2">
@@ -2313,27 +2313,27 @@
         <v>8192</v>
       </c>
       <c r="J44" s="2">
-        <f>ROUND(((B8 - B44) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B44,4)</f>
         <v/>
       </c>
       <c r="K44" s="2">
-        <f>ROUND(((C8 - C44) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C44,4)</f>
         <v/>
       </c>
       <c r="L44" s="2">
-        <f>ROUND(((D8 - D44) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D44,4)</f>
         <v/>
       </c>
       <c r="M44" s="2">
-        <f>ROUND(((E8 - E44) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E44,4)</f>
         <v/>
       </c>
       <c r="N44" s="2">
-        <f>ROUND(((F8 - F44) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F44,4)</f>
         <v/>
       </c>
       <c r="O44" s="2">
-        <f>ROUND(((G8 - G44) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G44,4)</f>
         <v/>
       </c>
       <c r="Q44" s="2">
@@ -2441,27 +2441,27 @@
         <v>32</v>
       </c>
       <c r="J48" s="2">
-        <f>ROUND(((B3 - B48) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B48,4)</f>
         <v/>
       </c>
       <c r="K48" s="2">
-        <f>ROUND(((C3 - C48) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C48,4)</f>
         <v/>
       </c>
       <c r="L48" s="2">
-        <f>ROUND(((D3 - D48) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D48,4)</f>
         <v/>
       </c>
       <c r="M48" s="2">
-        <f>ROUND(((E3 - E48) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E48,4)</f>
         <v/>
       </c>
       <c r="N48" s="2">
-        <f>ROUND(((F3 - F48) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F48,4)</f>
         <v/>
       </c>
       <c r="O48" s="2">
-        <f>ROUND(((G3 - G48) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G48,4)</f>
         <v/>
       </c>
       <c r="Q48" s="2">
@@ -2500,27 +2500,27 @@
         <v>128</v>
       </c>
       <c r="J49" s="2">
-        <f>ROUND(((B4 - B49) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B49,4)</f>
         <v/>
       </c>
       <c r="K49" s="2">
-        <f>ROUND(((C4 - C49) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C49,4)</f>
         <v/>
       </c>
       <c r="L49" s="2">
-        <f>ROUND(((D4 - D49) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D49,4)</f>
         <v/>
       </c>
       <c r="M49" s="2">
-        <f>ROUND(((E4 - E49) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E49,4)</f>
         <v/>
       </c>
       <c r="N49" s="2">
-        <f>ROUND(((F4 - F49) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F49,4)</f>
         <v/>
       </c>
       <c r="O49" s="2">
-        <f>ROUND(((G4 - G49) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G49,4)</f>
         <v/>
       </c>
       <c r="Q49" s="2">
@@ -2559,27 +2559,27 @@
         <v>512</v>
       </c>
       <c r="J50" s="2">
-        <f>ROUND(((B5 - B50) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B50,4)</f>
         <v/>
       </c>
       <c r="K50" s="2">
-        <f>ROUND(((C5 - C50) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C50,4)</f>
         <v/>
       </c>
       <c r="L50" s="2">
-        <f>ROUND(((D5 - D50) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D50,4)</f>
         <v/>
       </c>
       <c r="M50" s="2">
-        <f>ROUND(((E5 - E50) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E50,4)</f>
         <v/>
       </c>
       <c r="N50" s="2">
-        <f>ROUND(((F5 - F50) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F50,4)</f>
         <v/>
       </c>
       <c r="O50" s="2">
-        <f>ROUND(((G5 - G50) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G50,4)</f>
         <v/>
       </c>
       <c r="Q50" s="2">
@@ -2618,27 +2618,27 @@
         <v>2048</v>
       </c>
       <c r="J51" s="2">
-        <f>ROUND(((B6 - B51) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B51,4)</f>
         <v/>
       </c>
       <c r="K51" s="2">
-        <f>ROUND(((C6 - C51) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C51,4)</f>
         <v/>
       </c>
       <c r="L51" s="2">
-        <f>ROUND(((D6 - D51) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D51,4)</f>
         <v/>
       </c>
       <c r="M51" s="2">
-        <f>ROUND(((E6 - E51) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E51,4)</f>
         <v/>
       </c>
       <c r="N51" s="2">
-        <f>ROUND(((F6 - F51) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F51,4)</f>
         <v/>
       </c>
       <c r="O51" s="2">
-        <f>ROUND(((G6 - G51) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G51,4)</f>
         <v/>
       </c>
       <c r="Q51" s="2">
@@ -2677,27 +2677,27 @@
         <v>4096</v>
       </c>
       <c r="J52" s="2">
-        <f>ROUND(((B7 - B52) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B52,4)</f>
         <v/>
       </c>
       <c r="K52" s="2">
-        <f>ROUND(((C7 - C52) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C52,4)</f>
         <v/>
       </c>
       <c r="L52" s="2">
-        <f>ROUND(((D7 - D52) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D52,4)</f>
         <v/>
       </c>
       <c r="M52" s="2">
-        <f>ROUND(((E7 - E52) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E52,4)</f>
         <v/>
       </c>
       <c r="N52" s="2">
-        <f>ROUND(((F7 - F52) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F52,4)</f>
         <v/>
       </c>
       <c r="O52" s="2">
-        <f>ROUND(((G7 - G52) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G52,4)</f>
         <v/>
       </c>
       <c r="Q52" s="2">
@@ -2736,27 +2736,27 @@
         <v>8192</v>
       </c>
       <c r="J53" s="2">
-        <f>ROUND(((B8 - B53) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B53,4)</f>
         <v/>
       </c>
       <c r="K53" s="2">
-        <f>ROUND(((C8 - C53) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C53,4)</f>
         <v/>
       </c>
       <c r="L53" s="2">
-        <f>ROUND(((D8 - D53) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D53,4)</f>
         <v/>
       </c>
       <c r="M53" s="2">
-        <f>ROUND(((E8 - E53) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E53,4)</f>
         <v/>
       </c>
       <c r="N53" s="2">
-        <f>ROUND(((F8 - F53) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F53,4)</f>
         <v/>
       </c>
       <c r="O53" s="2">
-        <f>ROUND(((G8 - G53) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G53,4)</f>
         <v/>
       </c>
       <c r="Q53" s="2">
@@ -2864,27 +2864,27 @@
         <v>32</v>
       </c>
       <c r="J57" s="2">
-        <f>ROUND(((B3 - B57) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B57,4)</f>
         <v/>
       </c>
       <c r="K57" s="2">
-        <f>ROUND(((C3 - C57) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C57,4)</f>
         <v/>
       </c>
       <c r="L57" s="2">
-        <f>ROUND(((D3 - D57) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D57,4)</f>
         <v/>
       </c>
       <c r="M57" s="2">
-        <f>ROUND(((E3 - E57) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E57,4)</f>
         <v/>
       </c>
       <c r="N57" s="2">
-        <f>ROUND(((F3 - F57) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F57,4)</f>
         <v/>
       </c>
       <c r="O57" s="2">
-        <f>ROUND(((G3 - G57) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G57,4)</f>
         <v/>
       </c>
       <c r="Q57" s="2">
@@ -2923,27 +2923,27 @@
         <v>128</v>
       </c>
       <c r="J58" s="2">
-        <f>ROUND(((B4 - B58) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B58,4)</f>
         <v/>
       </c>
       <c r="K58" s="2">
-        <f>ROUND(((C4 - C58) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C58,4)</f>
         <v/>
       </c>
       <c r="L58" s="2">
-        <f>ROUND(((D4 - D58) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D58,4)</f>
         <v/>
       </c>
       <c r="M58" s="2">
-        <f>ROUND(((E4 - E58) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E58,4)</f>
         <v/>
       </c>
       <c r="N58" s="2">
-        <f>ROUND(((F4 - F58) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F58,4)</f>
         <v/>
       </c>
       <c r="O58" s="2">
-        <f>ROUND(((G4 - G58) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G58,4)</f>
         <v/>
       </c>
       <c r="Q58" s="2">
@@ -2982,27 +2982,27 @@
         <v>512</v>
       </c>
       <c r="J59" s="2">
-        <f>ROUND(((B5 - B59) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B59,4)</f>
         <v/>
       </c>
       <c r="K59" s="2">
-        <f>ROUND(((C5 - C59) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C59,4)</f>
         <v/>
       </c>
       <c r="L59" s="2">
-        <f>ROUND(((D5 - D59) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D59,4)</f>
         <v/>
       </c>
       <c r="M59" s="2">
-        <f>ROUND(((E5 - E59) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E59,4)</f>
         <v/>
       </c>
       <c r="N59" s="2">
-        <f>ROUND(((F5 - F59) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F59,4)</f>
         <v/>
       </c>
       <c r="O59" s="2">
-        <f>ROUND(((G5 - G59) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G59,4)</f>
         <v/>
       </c>
       <c r="Q59" s="2">
@@ -3041,27 +3041,27 @@
         <v>2048</v>
       </c>
       <c r="J60" s="2">
-        <f>ROUND(((B6 - B60) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B60,4)</f>
         <v/>
       </c>
       <c r="K60" s="2">
-        <f>ROUND(((C6 - C60) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C60,4)</f>
         <v/>
       </c>
       <c r="L60" s="2">
-        <f>ROUND(((D6 - D60) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D60,4)</f>
         <v/>
       </c>
       <c r="M60" s="2">
-        <f>ROUND(((E6 - E60) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E60,4)</f>
         <v/>
       </c>
       <c r="N60" s="2">
-        <f>ROUND(((F6 - F60) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F60,4)</f>
         <v/>
       </c>
       <c r="O60" s="2">
-        <f>ROUND(((G6 - G60) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G60,4)</f>
         <v/>
       </c>
       <c r="Q60" s="2">
@@ -3100,27 +3100,27 @@
         <v>4096</v>
       </c>
       <c r="J61" s="2">
-        <f>ROUND(((B7 - B61) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B61,4)</f>
         <v/>
       </c>
       <c r="K61" s="2">
-        <f>ROUND(((C7 - C61) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C61,4)</f>
         <v/>
       </c>
       <c r="L61" s="2">
-        <f>ROUND(((D7 - D61) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D61,4)</f>
         <v/>
       </c>
       <c r="M61" s="2">
-        <f>ROUND(((E7 - E61) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E61,4)</f>
         <v/>
       </c>
       <c r="N61" s="2">
-        <f>ROUND(((F7 - F61) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F61,4)</f>
         <v/>
       </c>
       <c r="O61" s="2">
-        <f>ROUND(((G7 - G61) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G61,4)</f>
         <v/>
       </c>
       <c r="Q61" s="2">
@@ -3159,27 +3159,27 @@
         <v>8192</v>
       </c>
       <c r="J62" s="2">
-        <f>ROUND(((B8 - B62) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B62,4)</f>
         <v/>
       </c>
       <c r="K62" s="2">
-        <f>ROUND(((C8 - C62) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C62,4)</f>
         <v/>
       </c>
       <c r="L62" s="2">
-        <f>ROUND(((D8 - D62) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D62,4)</f>
         <v/>
       </c>
       <c r="M62" s="2">
-        <f>ROUND(((E8 - E62) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E62,4)</f>
         <v/>
       </c>
       <c r="N62" s="2">
-        <f>ROUND(((F8 - F62) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F62,4)</f>
         <v/>
       </c>
       <c r="O62" s="2">
-        <f>ROUND(((G8 - G62) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G62,4)</f>
         <v/>
       </c>
       <c r="Q62" s="2">
@@ -3287,27 +3287,27 @@
         <v>32</v>
       </c>
       <c r="J66" s="2">
-        <f>ROUND(((B3 - B66) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B66,4)</f>
         <v/>
       </c>
       <c r="K66" s="2">
-        <f>ROUND(((C3 - C66) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C66,4)</f>
         <v/>
       </c>
       <c r="L66" s="2">
-        <f>ROUND(((D3 - D66) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D66,4)</f>
         <v/>
       </c>
       <c r="M66" s="2">
-        <f>ROUND(((E3 - E66) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E66,4)</f>
         <v/>
       </c>
       <c r="N66" s="2">
-        <f>ROUND(((F3 - F66) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F66,4)</f>
         <v/>
       </c>
       <c r="O66" s="2">
-        <f>ROUND(((G3 - G66) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G66,4)</f>
         <v/>
       </c>
       <c r="Q66" s="2">
@@ -3346,27 +3346,27 @@
         <v>128</v>
       </c>
       <c r="J67" s="2">
-        <f>ROUND(((B4 - B67) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B67,4)</f>
         <v/>
       </c>
       <c r="K67" s="2">
-        <f>ROUND(((C4 - C67) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C67,4)</f>
         <v/>
       </c>
       <c r="L67" s="2">
-        <f>ROUND(((D4 - D67) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D67,4)</f>
         <v/>
       </c>
       <c r="M67" s="2">
-        <f>ROUND(((E4 - E67) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E67,4)</f>
         <v/>
       </c>
       <c r="N67" s="2">
-        <f>ROUND(((F4 - F67) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F67,4)</f>
         <v/>
       </c>
       <c r="O67" s="2">
-        <f>ROUND(((G4 - G67) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G67,4)</f>
         <v/>
       </c>
       <c r="Q67" s="2">
@@ -3405,27 +3405,27 @@
         <v>512</v>
       </c>
       <c r="J68" s="2">
-        <f>ROUND(((B5 - B68) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B68,4)</f>
         <v/>
       </c>
       <c r="K68" s="2">
-        <f>ROUND(((C5 - C68) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C68,4)</f>
         <v/>
       </c>
       <c r="L68" s="2">
-        <f>ROUND(((D5 - D68) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D68,4)</f>
         <v/>
       </c>
       <c r="M68" s="2">
-        <f>ROUND(((E5 - E68) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E68,4)</f>
         <v/>
       </c>
       <c r="N68" s="2">
-        <f>ROUND(((F5 - F68) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F68,4)</f>
         <v/>
       </c>
       <c r="O68" s="2">
-        <f>ROUND(((G5 - G68) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G68,4)</f>
         <v/>
       </c>
       <c r="Q68" s="2">
@@ -3464,27 +3464,27 @@
         <v>2048</v>
       </c>
       <c r="J69" s="2">
-        <f>ROUND(((B6 - B69) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B69,4)</f>
         <v/>
       </c>
       <c r="K69" s="2">
-        <f>ROUND(((C6 - C69) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C69,4)</f>
         <v/>
       </c>
       <c r="L69" s="2">
-        <f>ROUND(((D6 - D69) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D69,4)</f>
         <v/>
       </c>
       <c r="M69" s="2">
-        <f>ROUND(((E6 - E69) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E69,4)</f>
         <v/>
       </c>
       <c r="N69" s="2">
-        <f>ROUND(((F6 - F69) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F69,4)</f>
         <v/>
       </c>
       <c r="O69" s="2">
-        <f>ROUND(((G6 - G69) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G69,4)</f>
         <v/>
       </c>
       <c r="Q69" s="2">
@@ -3523,27 +3523,27 @@
         <v>4096</v>
       </c>
       <c r="J70" s="2">
-        <f>ROUND(((B7 - B70) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B70,4)</f>
         <v/>
       </c>
       <c r="K70" s="2">
-        <f>ROUND(((C7 - C70) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C70,4)</f>
         <v/>
       </c>
       <c r="L70" s="2">
-        <f>ROUND(((D7 - D70) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D70,4)</f>
         <v/>
       </c>
       <c r="M70" s="2">
-        <f>ROUND(((E7 - E70) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E70,4)</f>
         <v/>
       </c>
       <c r="N70" s="2">
-        <f>ROUND(((F7 - F70) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F70,4)</f>
         <v/>
       </c>
       <c r="O70" s="2">
-        <f>ROUND(((G7 - G70) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G70,4)</f>
         <v/>
       </c>
       <c r="Q70" s="2">
@@ -3582,27 +3582,27 @@
         <v>8192</v>
       </c>
       <c r="J71" s="2">
-        <f>ROUND(((B8 - B71) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B71,4)</f>
         <v/>
       </c>
       <c r="K71" s="2">
-        <f>ROUND(((C8 - C71) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C71,4)</f>
         <v/>
       </c>
       <c r="L71" s="2">
-        <f>ROUND(((D8 - D71) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D71,4)</f>
         <v/>
       </c>
       <c r="M71" s="2">
-        <f>ROUND(((E8 - E71) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E71,4)</f>
         <v/>
       </c>
       <c r="N71" s="2">
-        <f>ROUND(((F8 - F71) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F71,4)</f>
         <v/>
       </c>
       <c r="O71" s="2">
-        <f>ROUND(((G8 - G71) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G71,4)</f>
         <v/>
       </c>
       <c r="Q71" s="2">
@@ -3710,27 +3710,27 @@
         <v>32</v>
       </c>
       <c r="J75" s="2">
-        <f>ROUND(((B3 - B75) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B75,4)</f>
         <v/>
       </c>
       <c r="K75" s="2">
-        <f>ROUND(((C3 - C75) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C75,4)</f>
         <v/>
       </c>
       <c r="L75" s="2">
-        <f>ROUND(((D3 - D75) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D75,4)</f>
         <v/>
       </c>
       <c r="M75" s="2">
-        <f>ROUND(((E3 - E75) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E75,4)</f>
         <v/>
       </c>
       <c r="N75" s="2">
-        <f>ROUND(((F3 - F75) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F75,4)</f>
         <v/>
       </c>
       <c r="O75" s="2">
-        <f>ROUND(((G3 - G75) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G75,4)</f>
         <v/>
       </c>
       <c r="Q75" s="2">
@@ -3769,27 +3769,27 @@
         <v>128</v>
       </c>
       <c r="J76" s="2">
-        <f>ROUND(((B4 - B76) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B76,4)</f>
         <v/>
       </c>
       <c r="K76" s="2">
-        <f>ROUND(((C4 - C76) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C76,4)</f>
         <v/>
       </c>
       <c r="L76" s="2">
-        <f>ROUND(((D4 - D76) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D76,4)</f>
         <v/>
       </c>
       <c r="M76" s="2">
-        <f>ROUND(((E4 - E76) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E76,4)</f>
         <v/>
       </c>
       <c r="N76" s="2">
-        <f>ROUND(((F4 - F76) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F76,4)</f>
         <v/>
       </c>
       <c r="O76" s="2">
-        <f>ROUND(((G4 - G76) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G76,4)</f>
         <v/>
       </c>
       <c r="Q76" s="2">
@@ -3828,27 +3828,27 @@
         <v>512</v>
       </c>
       <c r="J77" s="2">
-        <f>ROUND(((B5 - B77) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B77,4)</f>
         <v/>
       </c>
       <c r="K77" s="2">
-        <f>ROUND(((C5 - C77) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C77,4)</f>
         <v/>
       </c>
       <c r="L77" s="2">
-        <f>ROUND(((D5 - D77) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D77,4)</f>
         <v/>
       </c>
       <c r="M77" s="2">
-        <f>ROUND(((E5 - E77) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E77,4)</f>
         <v/>
       </c>
       <c r="N77" s="2">
-        <f>ROUND(((F5 - F77) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F77,4)</f>
         <v/>
       </c>
       <c r="O77" s="2">
-        <f>ROUND(((G5 - G77) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G77,4)</f>
         <v/>
       </c>
       <c r="Q77" s="2">
@@ -3887,27 +3887,27 @@
         <v>2048</v>
       </c>
       <c r="J78" s="2">
-        <f>ROUND(((B6 - B78) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B78,4)</f>
         <v/>
       </c>
       <c r="K78" s="2">
-        <f>ROUND(((C6 - C78) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C78,4)</f>
         <v/>
       </c>
       <c r="L78" s="2">
-        <f>ROUND(((D6 - D78) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D78,4)</f>
         <v/>
       </c>
       <c r="M78" s="2">
-        <f>ROUND(((E6 - E78) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E78,4)</f>
         <v/>
       </c>
       <c r="N78" s="2">
-        <f>ROUND(((F6 - F78) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F78,4)</f>
         <v/>
       </c>
       <c r="O78" s="2">
-        <f>ROUND(((G6 - G78) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G78,4)</f>
         <v/>
       </c>
       <c r="Q78" s="2">
@@ -3946,27 +3946,27 @@
         <v>4096</v>
       </c>
       <c r="J79" s="2">
-        <f>ROUND(((B7 - B79) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B79,4)</f>
         <v/>
       </c>
       <c r="K79" s="2">
-        <f>ROUND(((C7 - C79) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C79,4)</f>
         <v/>
       </c>
       <c r="L79" s="2">
-        <f>ROUND(((D7 - D79) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D79,4)</f>
         <v/>
       </c>
       <c r="M79" s="2">
-        <f>ROUND(((E7 - E79) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E79,4)</f>
         <v/>
       </c>
       <c r="N79" s="2">
-        <f>ROUND(((F7 - F79) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F79,4)</f>
         <v/>
       </c>
       <c r="O79" s="2">
-        <f>ROUND(((G7 - G79) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G79,4)</f>
         <v/>
       </c>
       <c r="Q79" s="2">
@@ -4005,27 +4005,27 @@
         <v>8192</v>
       </c>
       <c r="J80" s="2">
-        <f>ROUND(((B8 - B80) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B80,4)</f>
         <v/>
       </c>
       <c r="K80" s="2">
-        <f>ROUND(((C8 - C80) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C80,4)</f>
         <v/>
       </c>
       <c r="L80" s="2">
-        <f>ROUND(((D8 - D80) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D80,4)</f>
         <v/>
       </c>
       <c r="M80" s="2">
-        <f>ROUND(((E8 - E80) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E80,4)</f>
         <v/>
       </c>
       <c r="N80" s="2">
-        <f>ROUND(((F8 - F80) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F80,4)</f>
         <v/>
       </c>
       <c r="O80" s="2">
-        <f>ROUND(((G8 - G80) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G80,4)</f>
         <v/>
       </c>
       <c r="Q80" s="2">
@@ -4133,27 +4133,27 @@
         <v>32</v>
       </c>
       <c r="J84" s="2">
-        <f>ROUND(((B3 - B84) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B84,4)</f>
         <v/>
       </c>
       <c r="K84" s="2">
-        <f>ROUND(((C3 - C84) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C84,4)</f>
         <v/>
       </c>
       <c r="L84" s="2">
-        <f>ROUND(((D3 - D84) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D84,4)</f>
         <v/>
       </c>
       <c r="M84" s="2">
-        <f>ROUND(((E3 - E84) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E84,4)</f>
         <v/>
       </c>
       <c r="N84" s="2">
-        <f>ROUND(((F3 - F84) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F84,4)</f>
         <v/>
       </c>
       <c r="O84" s="2">
-        <f>ROUND(((G3 - G84) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G84,4)</f>
         <v/>
       </c>
       <c r="Q84" s="2">
@@ -4192,27 +4192,27 @@
         <v>128</v>
       </c>
       <c r="J85" s="2">
-        <f>ROUND(((B4 - B85) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B85,4)</f>
         <v/>
       </c>
       <c r="K85" s="2">
-        <f>ROUND(((C4 - C85) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C85,4)</f>
         <v/>
       </c>
       <c r="L85" s="2">
-        <f>ROUND(((D4 - D85) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D85,4)</f>
         <v/>
       </c>
       <c r="M85" s="2">
-        <f>ROUND(((E4 - E85) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E85,4)</f>
         <v/>
       </c>
       <c r="N85" s="2">
-        <f>ROUND(((F4 - F85) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F85,4)</f>
         <v/>
       </c>
       <c r="O85" s="2">
-        <f>ROUND(((G4 - G85) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G85,4)</f>
         <v/>
       </c>
       <c r="Q85" s="2">
@@ -4251,27 +4251,27 @@
         <v>512</v>
       </c>
       <c r="J86" s="2">
-        <f>ROUND(((B5 - B86) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B86,4)</f>
         <v/>
       </c>
       <c r="K86" s="2">
-        <f>ROUND(((C5 - C86) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C86,4)</f>
         <v/>
       </c>
       <c r="L86" s="2">
-        <f>ROUND(((D5 - D86) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D86,4)</f>
         <v/>
       </c>
       <c r="M86" s="2">
-        <f>ROUND(((E5 - E86) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E86,4)</f>
         <v/>
       </c>
       <c r="N86" s="2">
-        <f>ROUND(((F5 - F86) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F86,4)</f>
         <v/>
       </c>
       <c r="O86" s="2">
-        <f>ROUND(((G5 - G86) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G86,4)</f>
         <v/>
       </c>
       <c r="Q86" s="2">
@@ -4310,27 +4310,27 @@
         <v>2048</v>
       </c>
       <c r="J87" s="2">
-        <f>ROUND(((B6 - B87) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B87,4)</f>
         <v/>
       </c>
       <c r="K87" s="2">
-        <f>ROUND(((C6 - C87) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C87,4)</f>
         <v/>
       </c>
       <c r="L87" s="2">
-        <f>ROUND(((D6 - D87) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D87,4)</f>
         <v/>
       </c>
       <c r="M87" s="2">
-        <f>ROUND(((E6 - E87) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E87,4)</f>
         <v/>
       </c>
       <c r="N87" s="2">
-        <f>ROUND(((F6 - F87) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F87,4)</f>
         <v/>
       </c>
       <c r="O87" s="2">
-        <f>ROUND(((G6 - G87) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G87,4)</f>
         <v/>
       </c>
       <c r="Q87" s="2">
@@ -4369,27 +4369,27 @@
         <v>4096</v>
       </c>
       <c r="J88" s="2">
-        <f>ROUND(((B7 - B88) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B88,4)</f>
         <v/>
       </c>
       <c r="K88" s="2">
-        <f>ROUND(((C7 - C88) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C88,4)</f>
         <v/>
       </c>
       <c r="L88" s="2">
-        <f>ROUND(((D7 - D88) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D88,4)</f>
         <v/>
       </c>
       <c r="M88" s="2">
-        <f>ROUND(((E7 - E88) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E88,4)</f>
         <v/>
       </c>
       <c r="N88" s="2">
-        <f>ROUND(((F7 - F88) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F88,4)</f>
         <v/>
       </c>
       <c r="O88" s="2">
-        <f>ROUND(((G7 - G88) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G88,4)</f>
         <v/>
       </c>
       <c r="Q88" s="2">
@@ -4428,27 +4428,27 @@
         <v>8192</v>
       </c>
       <c r="J89" s="2">
-        <f>ROUND(((B8 - B89) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B89,4)</f>
         <v/>
       </c>
       <c r="K89" s="2">
-        <f>ROUND(((C8 - C89) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C89,4)</f>
         <v/>
       </c>
       <c r="L89" s="2">
-        <f>ROUND(((D8 - D89) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D89,4)</f>
         <v/>
       </c>
       <c r="M89" s="2">
-        <f>ROUND(((E8 - E89) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E89,4)</f>
         <v/>
       </c>
       <c r="N89" s="2">
-        <f>ROUND(((F8 - F89) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F89,4)</f>
         <v/>
       </c>
       <c r="O89" s="2">
-        <f>ROUND(((G8 - G89) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G89,4)</f>
         <v/>
       </c>
       <c r="Q89" s="2">
@@ -4556,27 +4556,27 @@
         <v>32</v>
       </c>
       <c r="J93" s="2">
-        <f>ROUND(((B3 - B93) / B3) * 100,2)</f>
+        <f>ROUND(B3 / B93,4)</f>
         <v/>
       </c>
       <c r="K93" s="2">
-        <f>ROUND(((C3 - C93) / C3) * 100,2)</f>
+        <f>ROUND(C3 / C93,4)</f>
         <v/>
       </c>
       <c r="L93" s="2">
-        <f>ROUND(((D3 - D93) / D3) * 100,2)</f>
+        <f>ROUND(D3 / D93,4)</f>
         <v/>
       </c>
       <c r="M93" s="2">
-        <f>ROUND(((E3 - E93) / E3) * 100,2)</f>
+        <f>ROUND(E3 / E93,4)</f>
         <v/>
       </c>
       <c r="N93" s="2">
-        <f>ROUND(((F3 - F93) / F3) * 100,2)</f>
+        <f>ROUND(F3 / F93,4)</f>
         <v/>
       </c>
       <c r="O93" s="2">
-        <f>ROUND(((G3 - G93) / G3) * 100,2)</f>
+        <f>ROUND(G3 / G93,4)</f>
         <v/>
       </c>
       <c r="Q93" s="2">
@@ -4615,27 +4615,27 @@
         <v>128</v>
       </c>
       <c r="J94" s="2">
-        <f>ROUND(((B4 - B94) / B4) * 100,2)</f>
+        <f>ROUND(B4 / B94,4)</f>
         <v/>
       </c>
       <c r="K94" s="2">
-        <f>ROUND(((C4 - C94) / C4) * 100,2)</f>
+        <f>ROUND(C4 / C94,4)</f>
         <v/>
       </c>
       <c r="L94" s="2">
-        <f>ROUND(((D4 - D94) / D4) * 100,2)</f>
+        <f>ROUND(D4 / D94,4)</f>
         <v/>
       </c>
       <c r="M94" s="2">
-        <f>ROUND(((E4 - E94) / E4) * 100,2)</f>
+        <f>ROUND(E4 / E94,4)</f>
         <v/>
       </c>
       <c r="N94" s="2">
-        <f>ROUND(((F4 - F94) / F4) * 100,2)</f>
+        <f>ROUND(F4 / F94,4)</f>
         <v/>
       </c>
       <c r="O94" s="2">
-        <f>ROUND(((G4 - G94) / G4) * 100,2)</f>
+        <f>ROUND(G4 / G94,4)</f>
         <v/>
       </c>
       <c r="Q94" s="2">
@@ -4674,27 +4674,27 @@
         <v>512</v>
       </c>
       <c r="J95" s="2">
-        <f>ROUND(((B5 - B95) / B5) * 100,2)</f>
+        <f>ROUND(B5 / B95,4)</f>
         <v/>
       </c>
       <c r="K95" s="2">
-        <f>ROUND(((C5 - C95) / C5) * 100,2)</f>
+        <f>ROUND(C5 / C95,4)</f>
         <v/>
       </c>
       <c r="L95" s="2">
-        <f>ROUND(((D5 - D95) / D5) * 100,2)</f>
+        <f>ROUND(D5 / D95,4)</f>
         <v/>
       </c>
       <c r="M95" s="2">
-        <f>ROUND(((E5 - E95) / E5) * 100,2)</f>
+        <f>ROUND(E5 / E95,4)</f>
         <v/>
       </c>
       <c r="N95" s="2">
-        <f>ROUND(((F5 - F95) / F5) * 100,2)</f>
+        <f>ROUND(F5 / F95,4)</f>
         <v/>
       </c>
       <c r="O95" s="2">
-        <f>ROUND(((G5 - G95) / G5) * 100,2)</f>
+        <f>ROUND(G5 / G95,4)</f>
         <v/>
       </c>
       <c r="Q95" s="2">
@@ -4733,27 +4733,27 @@
         <v>2048</v>
       </c>
       <c r="J96" s="2">
-        <f>ROUND(((B6 - B96) / B6) * 100,2)</f>
+        <f>ROUND(B6 / B96,4)</f>
         <v/>
       </c>
       <c r="K96" s="2">
-        <f>ROUND(((C6 - C96) / C6) * 100,2)</f>
+        <f>ROUND(C6 / C96,4)</f>
         <v/>
       </c>
       <c r="L96" s="2">
-        <f>ROUND(((D6 - D96) / D6) * 100,2)</f>
+        <f>ROUND(D6 / D96,4)</f>
         <v/>
       </c>
       <c r="M96" s="2">
-        <f>ROUND(((E6 - E96) / E6) * 100,2)</f>
+        <f>ROUND(E6 / E96,4)</f>
         <v/>
       </c>
       <c r="N96" s="2">
-        <f>ROUND(((F6 - F96) / F6) * 100,2)</f>
+        <f>ROUND(F6 / F96,4)</f>
         <v/>
       </c>
       <c r="O96" s="2">
-        <f>ROUND(((G6 - G96) / G6) * 100,2)</f>
+        <f>ROUND(G6 / G96,4)</f>
         <v/>
       </c>
       <c r="Q96" s="2">
@@ -4792,27 +4792,27 @@
         <v>4096</v>
       </c>
       <c r="J97" s="2">
-        <f>ROUND(((B7 - B97) / B7) * 100,2)</f>
+        <f>ROUND(B7 / B97,4)</f>
         <v/>
       </c>
       <c r="K97" s="2">
-        <f>ROUND(((C7 - C97) / C7) * 100,2)</f>
+        <f>ROUND(C7 / C97,4)</f>
         <v/>
       </c>
       <c r="L97" s="2">
-        <f>ROUND(((D7 - D97) / D7) * 100,2)</f>
+        <f>ROUND(D7 / D97,4)</f>
         <v/>
       </c>
       <c r="M97" s="2">
-        <f>ROUND(((E7 - E97) / E7) * 100,2)</f>
+        <f>ROUND(E7 / E97,4)</f>
         <v/>
       </c>
       <c r="N97" s="2">
-        <f>ROUND(((F7 - F97) / F7) * 100,2)</f>
+        <f>ROUND(F7 / F97,4)</f>
         <v/>
       </c>
       <c r="O97" s="2">
-        <f>ROUND(((G7 - G97) / G7) * 100,2)</f>
+        <f>ROUND(G7 / G97,4)</f>
         <v/>
       </c>
       <c r="Q97" s="2">
@@ -4851,27 +4851,27 @@
         <v>8192</v>
       </c>
       <c r="J98" s="2">
-        <f>ROUND(((B8 - B98) / B8) * 100,2)</f>
+        <f>ROUND(B8 / B98,4)</f>
         <v/>
       </c>
       <c r="K98" s="2">
-        <f>ROUND(((C8 - C98) / C8) * 100,2)</f>
+        <f>ROUND(C8 / C98,4)</f>
         <v/>
       </c>
       <c r="L98" s="2">
-        <f>ROUND(((D8 - D98) / D8) * 100,2)</f>
+        <f>ROUND(D8 / D98,4)</f>
         <v/>
       </c>
       <c r="M98" s="2">
-        <f>ROUND(((E8 - E98) / E8) * 100,2)</f>
+        <f>ROUND(E8 / E98,4)</f>
         <v/>
       </c>
       <c r="N98" s="2">
-        <f>ROUND(((F8 - F98) / F8) * 100,2)</f>
+        <f>ROUND(F8 / F98,4)</f>
         <v/>
       </c>
       <c r="O98" s="2">
-        <f>ROUND(((G8 - G98) / G8) * 100,2)</f>
+        <f>ROUND(G8 / G98,4)</f>
         <v/>
       </c>
       <c r="Q98" s="2">
@@ -4913,7 +4913,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4925,7 +4925,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4937,7 +4937,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4949,7 +4949,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4961,7 +4961,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4973,7 +4973,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4985,7 +4985,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -4997,7 +4997,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5009,7 +5009,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5021,7 +5021,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5033,7 +5033,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5045,7 +5045,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5057,7 +5057,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5069,7 +5069,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5081,7 +5081,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5093,7 +5093,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5105,7 +5105,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5117,7 +5117,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5129,7 +5129,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5141,7 +5141,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5153,7 +5153,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5165,7 +5165,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5177,7 +5177,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5189,7 +5189,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5201,7 +5201,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5213,7 +5213,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5225,7 +5225,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5237,7 +5237,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5249,7 +5249,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -5261,7 +5261,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
